--- a/medicine/Enfance/Darhan/Darhan.xlsx
+++ b/medicine/Enfance/Darhan/Darhan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Darhan est une série jeunesse québécoise écrite par l'auteur Sylvain Hotte et publiée aux Éditions des Intouchables et republiée chez Pocket Jeunesse en France en 2012.
 La série traite des aventures de Darhan, un jeune berger de 13 ans des steppes mongoles, du temps des guerres entre les armées mongoles et perses.
@@ -512,7 +524,9 @@
           <t>Résumé des tomes de Darhan</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tome 1
 La Fée du lac Baïkal (sorti en 2006)
